--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1040457.598551902</v>
+        <v>1066667.096737902</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484439</v>
+        <v>492028.9342484442</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7151949.26963876</v>
+        <v>7192983.026482694</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>257.3427455190885</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -671,13 +671,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>237.2166410355313</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>135.697228953574</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>231.1621979137637</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -896,16 +896,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>332.4291174559667</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>411.2087522069209</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1054,25 +1054,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>118.1023822252945</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>243.4292606194036</v>
       </c>
       <c r="E8" t="n">
-        <v>325.5800738246914</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1291,25 +1291,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>99.79832775889821</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1354,7 +1354,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283471</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1421,10 +1421,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>206.4855017772231</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>82.1420163755141</v>
+        <v>47.9052515592029</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>173.795002908892</v>
+        <v>90.97964783089149</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>98.98021706930176</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>13.5144690908971</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1898,7 +1898,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>78.23495004134674</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317935</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2008,19 +2008,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>145.8285166974203</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149795</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>199.1362892344168</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>187.5234134555225</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2482,7 +2482,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>28.46824604904448</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2530,10 +2530,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436915</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>105.5504749248105</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2773,10 +2773,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>125.1716544454857</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.76594660771121</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3196,13 +3196,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>172.493324008032</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3424,16 +3424,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>126.7641785672305</v>
       </c>
       <c r="D37" t="n">
-        <v>43.77283765622091</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3442,7 +3442,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3512,7 +3512,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948852</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3661,10 +3661,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3727,7 +3727,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.332101288806</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>344.1450449685983</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3806,7 +3806,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>219.4201062858544</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>130.9826845827085</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117737</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>5.990622819018522</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3980,10 +3980,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>163.9521757218097</v>
       </c>
       <c r="E44" t="n">
-        <v>161.4258646586683</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704961</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4189,16 +4189,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>172.662300743691</v>
       </c>
       <c r="V46" t="n">
-        <v>139.9514671241832</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1072.077256853988</v>
+        <v>809.2805987292503</v>
       </c>
       <c r="C2" t="n">
-        <v>1037.975188077816</v>
+        <v>371.1381259126736</v>
       </c>
       <c r="D2" t="n">
-        <v>778.0330208868171</v>
+        <v>339.2687451275222</v>
       </c>
       <c r="E2" t="n">
-        <v>748.2986800855164</v>
+        <v>309.5344043262214</v>
       </c>
       <c r="F2" t="n">
-        <v>724.4716545351282</v>
+        <v>285.7073787758332</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>285.7073787758332</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.09461005307436</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1002.975152381414</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1002.975152381414</v>
       </c>
       <c r="N2" t="n">
-        <v>1107.976466382457</v>
+        <v>1002.975152381414</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1002.975152381414</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299067</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257661</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010718</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010718</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2063.823806883757</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>2063.823806883757</v>
       </c>
       <c r="V2" t="n">
-        <v>1114.499252887282</v>
+        <v>2063.823806883757</v>
       </c>
       <c r="W2" t="n">
-        <v>1113.68420233872</v>
+        <v>1658.96835229479</v>
       </c>
       <c r="X2" t="n">
-        <v>1098.582142958435</v>
+        <v>1643.866292914505</v>
       </c>
       <c r="Y2" t="n">
-        <v>1094.336423298492</v>
+        <v>1235.580169214158</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715072</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081495</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547027</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816564</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.798562597818</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.4134728640019</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067196</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>961.562849724537</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064684</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999976</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331697</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720496</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512703</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>718.8484307043673</v>
+        <v>355.3074402309026</v>
       </c>
       <c r="C4" t="n">
-        <v>546.2867191875922</v>
+        <v>182.7457287141276</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>45.67782068021437</v>
       </c>
       <c r="K4" t="n">
-        <v>269.215608100497</v>
+        <v>320.4362752513499</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>738.646157019311</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>1198.130024200224</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1640.388827357869</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2060.05807658365</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2283.891034010718</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010718</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.47321271609</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2103.231844014087</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1857.352397592542</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1578.919396845647</v>
       </c>
       <c r="V4" t="n">
-        <v>1463.686260470555</v>
+        <v>1291.963888716077</v>
       </c>
       <c r="W4" t="n">
-        <v>1191.659856056847</v>
+        <v>1019.937484302369</v>
       </c>
       <c r="X4" t="n">
-        <v>946.2681013902591</v>
+        <v>774.5457296357815</v>
       </c>
       <c r="Y4" t="n">
-        <v>718.8484307043673</v>
+        <v>547.1260589498897</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C5" t="n">
-        <v>1226.179759784392</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D5" t="n">
-        <v>797.5980855216599</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1827.339296006747</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1411.97692004016</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1407.731200380218</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.603617826933</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>122.603617826933</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>122.603617826933</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>761.43086230084</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1397.228904502681</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1118.795903755786</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>831.8403956262162</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>559.8139912125076</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>314.4222365459201</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>314.4222365459201</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.721030006719</v>
+        <v>791.4099871095558</v>
       </c>
       <c r="C8" t="n">
-        <v>1216.618961230547</v>
+        <v>353.2675142929791</v>
       </c>
       <c r="D8" t="n">
-        <v>788.0372869678149</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>459.1685255287327</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1277.130531135514</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1625.99568129481</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.980196451223</v>
+        <v>1217.709557594464</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>440.5302273853659</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>339.7238357097111</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>173.8458429112338</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E10" t="n">
-        <v>173.8458429112338</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="F10" t="n">
-        <v>173.8458429112338</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1418.750429333523</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1131.794921203953</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>859.7685167902448</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>859.7685167902448</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>632.348846104353</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062125</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419993</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578288</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874956</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G11" t="n">
         <v>386.2829206107589</v>
@@ -5048,19 +5048,19 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263768</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097164</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5069,22 +5069,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547033</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580463</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
         <v>96.73597668111518</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418844</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.468441289274</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.442036875566</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1422.4707151811</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477033</v>
+        <v>1195.051044495209</v>
       </c>
     </row>
     <row r="14">
@@ -5264,16 +5264,16 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G14" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5282,19 +5282,19 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693462</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693462</v>
+        <v>2492.071939528658</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263768</v>
+        <v>3472.251606098964</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097164</v>
+        <v>4300.561480932361</v>
       </c>
       <c r="Q14" t="n">
         <v>4836.798834055759</v>
@@ -5303,13 +5303,13 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245814</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
         <v>4181.958796257035</v>
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>1135.87198022509</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>963.3102687083147</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>797.4322759098375</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>627.6742721605747</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>450.9672181223309</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>285.3759431481585</v>
       </c>
       <c r="H16" t="n">
         <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5476,10 +5476,10 @@
         <v>1608.683405577569</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.032426697876</v>
+        <v>1363.291650910981</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>1135.87198022509</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.22255580238</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277509</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510149</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423109</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.5833484213711</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.737835489029</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4798.236621447623</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068555</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252392</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125431</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4546.423118063465</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.806167997292</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.950713408325</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.808249987635</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287288</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493062</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958595</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228132</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389748</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.5833484213711</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480411</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>449.2053465480411</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>978.4779832633415</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>805.9162717465665</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>640.0382789480893</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>492.7367469304936</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304936</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563213</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.5833484213711</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029543</v>
+        <v>2700.681281130891</v>
       </c>
       <c r="S19" t="n">
-        <v>2534.583768327539</v>
+        <v>2700.681281130891</v>
       </c>
       <c r="T19" t="n">
-        <v>2288.704321905994</v>
+        <v>2454.801834709346</v>
       </c>
       <c r="U19" t="n">
-        <v>2010.271321159099</v>
+        <v>2176.368833962451</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.315813029529</v>
+        <v>1889.413325832882</v>
       </c>
       <c r="W19" t="n">
-        <v>1451.289408615821</v>
+        <v>1617.386921419173</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.897653949233</v>
+        <v>1371.995166752586</v>
       </c>
       <c r="Y19" t="n">
-        <v>978.4779832633415</v>
+        <v>1144.575496066694</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5762,40 +5762,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>1015.727725908488</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>843.1660143917134</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674087</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439734</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057296</v>
       </c>
       <c r="G22" t="n">
         <v>330.8229638057298</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.67908147158</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050035</v>
+        <v>2517.772683270128</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.36663430314</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V22" t="n">
-        <v>2035.36663430314</v>
+        <v>1952.384174393663</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954128</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1434.966015313367</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1207.546344627475</v>
       </c>
     </row>
     <row r="23">
@@ -5993,10 +5993,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.754677688392</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716169</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731397</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E25" t="n">
-        <v>473.3149733731397</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F25" t="n">
-        <v>296.6079193348959</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>131.0166443607235</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601649</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>809.5937635959756</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>809.5937635959756</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181458</v>
+        <v>639.8357598467128</v>
       </c>
       <c r="F28" t="n">
-        <v>496.414238779902</v>
+        <v>463.128705808469</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>297.5374308342966</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6385,7 +6385,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878952</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755404</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008509</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878939</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1600.55729028754</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6464,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674087</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.966900465231</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1454.966900465231</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1227.547229779339</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6862,7 +6862,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
         <v>1341.292728955479</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2139.563954233837</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1852.608446104267</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="35">
@@ -6938,22 +6938,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -7017,22 +7017,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903952</v>
+        <v>790.3368563937638</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736202</v>
+        <v>662.2922315783794</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461862</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>982.155475112751</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
         <v>793.2056155771595</v>
@@ -7181,43 +7181,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>842.8792965674087</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C40" t="n">
-        <v>842.8792965674086</v>
+        <v>780.195165830936</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324588</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.559169283196</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1034.697915286396</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.531460638994</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094955</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.000418269401</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427696</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369036</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601675</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033837</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410832</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981138</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814534</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773129</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526186</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710023</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583061</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900078</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833904</v>
+        <v>3994.89235417964</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244938</v>
+        <v>3590.036899590674</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.117154824249</v>
+        <v>3170.894436169984</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123902</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>980.308103372495</v>
+        <v>1093.185322228297</v>
       </c>
       <c r="C43" t="n">
-        <v>807.7463918557199</v>
+        <v>920.6236107115217</v>
       </c>
       <c r="D43" t="n">
-        <v>675.4406498529841</v>
+        <v>754.7456179130444</v>
       </c>
       <c r="E43" t="n">
-        <v>505.6826461037176</v>
+        <v>584.9876141637817</v>
       </c>
       <c r="F43" t="n">
-        <v>328.9755920654738</v>
+        <v>408.2805601255378</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654738</v>
+        <v>242.6892851513654</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558484</v>
+        <v>102.7871108417399</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138695</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436692</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T43" t="n">
-        <v>2290.534442015147</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U43" t="n">
-        <v>2012.101441268252</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V43" t="n">
-        <v>1725.145933138682</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="W43" t="n">
-        <v>1453.119528724974</v>
+        <v>1757.815366299763</v>
       </c>
       <c r="X43" t="n">
-        <v>1207.727774058387</v>
+        <v>1512.423611633175</v>
       </c>
       <c r="Y43" t="n">
-        <v>980.308103372495</v>
+        <v>1285.003940947284</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2252.656868168568</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C44" t="n">
         <v>1814.514395351991</v>
       </c>
       <c r="D44" t="n">
-        <v>1378.604610526437</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G44" t="n">
-        <v>386.282920610759</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397518</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J44" t="n">
         <v>531.9906641340331</v>
@@ -7676,22 +7676,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429652</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774512</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X44" t="n">
         <v>3087.242562353822</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653476</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="45">
@@ -7719,7 +7719,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I45" t="n">
         <v>122.7996498415728</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1175.794137293</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C46" t="n">
-        <v>1003.232425776225</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D46" t="n">
-        <v>837.3544329777442</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E46" t="n">
-        <v>667.5964292284814</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902376</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G46" t="n">
         <v>325.2981002160653</v>
@@ -7801,10 +7801,10 @@
         <v>185.3959259064399</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K46" t="n">
         <v>458.0741164169406</v>
@@ -7837,19 +7837,19 @@
         <v>2286.856950165738</v>
       </c>
       <c r="U46" t="n">
-        <v>2008.423949418843</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="V46" t="n">
-        <v>1867.058831111588</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="W46" t="n">
-        <v>1595.032426697879</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X46" t="n">
-        <v>1595.032426697879</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y46" t="n">
-        <v>1367.612756011988</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>527.3158022709918</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320312</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>226.093896390978</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,16 +8377,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8453,25 +8453,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8945,7 +8945,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>541.6538920438379</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504358</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9641,13 +9641,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,22 +10355,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,10 +10601,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288205</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807277</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>268.0111327346216</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>11.38105307846863</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.7958207444075</v>
+        <v>195.0325855607188</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>185.1957776566197</v>
+        <v>268.0111327346202</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>39.52293549722746</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>229.4233680290245</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>178.3951296148065</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>22.23190701434984</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3.146865729420277</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,19 +24175,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>44.28436272291248</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>81.78272691404891</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>110.0349065174847</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>102.9863699957342</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>32.95267764171871</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>144.1344859240857</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>144.134485924086</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,13 +25123,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>44.07191583437677</v>
       </c>
       <c r="D37" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>30.8133726902268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>89.61600311981265</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>184.7831561774887</v>
       </c>
     </row>
     <row r="42">
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>33.23652828778407</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.78272691405289</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25868,10 +25868,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>267.5985112554902</v>
       </c>
       <c r="E44" t="n">
-        <v>268.0111327346194</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26077,16 +26077,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>102.9863699957347</v>
       </c>
       <c r="V46" t="n">
-        <v>144.1344859240907</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>599747.5654570359</v>
+        <v>608772.9063073141</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>599747.5654570359</v>
+        <v>614713.3679262367</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>599747.5654570359</v>
+        <v>614713.3679262367</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>608168.3049871376</v>
+        <v>608168.3049871377</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>616750.1512454211</v>
+        <v>633833.7024224802</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633833.7024224802</v>
+        <v>633833.7024224801</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>633833.7024224802</v>
+        <v>633833.7024224801</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>633833.7024224802</v>
+        <v>633833.7024224801</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>625251.8561641967</v>
+        <v>608168.3049871376</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>608168.3049871377</v>
+        <v>608168.3049871376</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375303.1239232861</v>
+        <v>375303.123923286</v>
       </c>
       <c r="C2" t="n">
         <v>375303.123923286</v>
@@ -26320,25 +26320,25 @@
         <v>375303.123923286</v>
       </c>
       <c r="E2" t="n">
-        <v>353866.7285801734</v>
+        <v>353866.7285801735</v>
       </c>
       <c r="F2" t="n">
-        <v>353866.7285801735</v>
+        <v>353866.7285801736</v>
       </c>
       <c r="G2" t="n">
-        <v>358860.1322740096</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="H2" t="n">
-        <v>368800.3088961468</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="I2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="J2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="K2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="L2" t="n">
         <v>368800.3088961467</v>
@@ -26350,7 +26350,7 @@
         <v>368800.3088961467</v>
       </c>
       <c r="O2" t="n">
-        <v>363806.9052023106</v>
+        <v>353866.7285801735</v>
       </c>
       <c r="P2" t="n">
         <v>353866.7285801736</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476935</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745907</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>18928.52796216472</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256751</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.9367839333</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>181417.5324886662</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>78141.89423804611</v>
+        <v>78141.89423804609</v>
       </c>
       <c r="F4" t="n">
         <v>78141.89423804611</v>
       </c>
       <c r="G4" t="n">
-        <v>79244.55236275081</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
         <v>81439.57146904283</v>
@@ -26451,13 +26451,13 @@
         <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.5714690428</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="O4" t="n">
-        <v>80336.91334433807</v>
+        <v>78141.89423804609</v>
       </c>
       <c r="P4" t="n">
-        <v>78141.89423804605</v>
+        <v>78141.89423804609</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696291</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024203</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319802</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32273.93771551293</v>
+        <v>-65803.25603003665</v>
       </c>
       <c r="C6" t="n">
-        <v>109917.362944197</v>
+        <v>104637.4761645109</v>
       </c>
       <c r="D6" t="n">
-        <v>109917.3629441969</v>
+        <v>135827.5111019699</v>
       </c>
       <c r="E6" t="n">
-        <v>-32149.52995755759</v>
+        <v>40393.85829956862</v>
       </c>
       <c r="F6" t="n">
-        <v>202205.4920644799</v>
+        <v>202128.9335096831</v>
       </c>
       <c r="G6" t="n">
-        <v>198363.0240681663</v>
+        <v>190690.7465197639</v>
       </c>
       <c r="H6" t="n">
-        <v>197239.7438413482</v>
+        <v>209619.2744819286</v>
       </c>
       <c r="I6" t="n">
-        <v>209642.4988213113</v>
+        <v>209619.2744819285</v>
       </c>
       <c r="J6" t="n">
-        <v>98628.03347632114</v>
+        <v>60227.67805625352</v>
       </c>
       <c r="K6" t="n">
-        <v>209642.4988213113</v>
+        <v>184772.3376979953</v>
       </c>
       <c r="L6" t="n">
-        <v>209642.4988213113</v>
+        <v>209619.2744819286</v>
       </c>
       <c r="M6" t="n">
-        <v>14041.31953824364</v>
+        <v>74629.32986892524</v>
       </c>
       <c r="N6" t="n">
-        <v>209642.4988213114</v>
+        <v>209619.2744819288</v>
       </c>
       <c r="O6" t="n">
-        <v>207155.7557747746</v>
+        <v>202128.9335096831</v>
       </c>
       <c r="P6" t="n">
-        <v>202205.49206448</v>
+        <v>202128.9335096831</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26802,7 +26802,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517741</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517741</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517741</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>174.2079414582115</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>49.02221197568463</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28.52198391691849</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>52.92375513451015</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,16 +27616,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>97.00787993732109</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>3.742286579561494</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>125.3182697320348</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>188.1214263578963</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E8" t="n">
-        <v>103.8569235685964</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,10 +27913,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>71.0377666427091</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>54.79268646174563</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>527.3158022709918</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026795</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320312</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>226.093896390978</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35425,13 +35425,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35665,7 +35665,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>541.6538920438379</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35884,16 +35884,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>132.2533329504358</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36361,13 +36361,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36832,7 +36832,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36850,10 +36850,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37230,10 +37230,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37306,13 +37306,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,10 +37321,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,13 +37713,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,19 +37789,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288205</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807277</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
